--- a/Alternatives/Alternative3_01/transit_fare/farematrix.xlsx
+++ b/Alternatives/Alternative3_01/transit_fare/farematrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12200" yWindow="280" windowWidth="25600" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="3200" yWindow="0" windowWidth="25600" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="farematrix.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="64">
   <si>
     <t>Dublin/ Pleasanton</t>
   </si>
@@ -259,8 +259,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -269,11 +271,13 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -603,12 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM65"/>
+  <dimension ref="A1:BM66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="BB1" sqref="BB1"/>
-      <selection pane="bottomLeft" activeCell="BJ63" sqref="BJ63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10738,6 +10740,238 @@
       <c r="A62" t="s">
         <v>60</v>
       </c>
+      <c r="B62">
+        <f>B65+(B29-B30)</f>
+        <v>297</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62:BB62" si="0">C65+(C29-C30)</f>
+        <v>287</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>301</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="0"/>
+        <v>287</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="0"/>
+        <v>273</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="0"/>
+        <v>238</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="AB62">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="AC62">
+        <v>129</v>
+      </c>
+      <c r="AD62">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+      <c r="AE62">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+      <c r="AF62">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+      <c r="AG62">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+      <c r="AH62">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+      <c r="AI62">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+      <c r="AJ62">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="AK62">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="AL62">
+        <f t="shared" si="0"/>
+        <v>269</v>
+      </c>
+      <c r="AM62">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+      <c r="AN62">
+        <f t="shared" si="0"/>
+        <v>287</v>
+      </c>
+      <c r="AO62">
+        <f t="shared" si="0"/>
+        <v>283</v>
+      </c>
+      <c r="AP62">
+        <f t="shared" si="0"/>
+        <v>297</v>
+      </c>
+      <c r="AQ62">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="AR62">
+        <f t="shared" si="0"/>
+        <v>626</v>
+      </c>
+      <c r="AS62">
+        <f t="shared" si="0"/>
+        <v>549</v>
+      </c>
+      <c r="AT62">
+        <f t="shared" si="0"/>
+        <v>332</v>
+      </c>
+      <c r="AU62">
+        <f t="shared" si="0"/>
+        <v>343</v>
+      </c>
+      <c r="AV62">
+        <f t="shared" si="0"/>
+        <v>353</v>
+      </c>
+      <c r="AW62">
+        <f t="shared" si="0"/>
+        <v>402</v>
+      </c>
+      <c r="AX62">
+        <f t="shared" si="0"/>
+        <v>413</v>
+      </c>
+      <c r="AY62">
+        <f t="shared" si="0"/>
+        <v>413</v>
+      </c>
+      <c r="AZ62">
+        <f t="shared" si="0"/>
+        <v>427</v>
+      </c>
+      <c r="BA62">
+        <f t="shared" si="0"/>
+        <v>318</v>
+      </c>
+      <c r="BB62">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="BC62">
+        <v>129</v>
+      </c>
+      <c r="BD62">
+        <v>245</v>
+      </c>
+      <c r="BE62">
+        <v>245</v>
+      </c>
+      <c r="BF62">
+        <v>231</v>
+      </c>
+      <c r="BG62">
+        <v>231</v>
+      </c>
+      <c r="BH62">
+        <v>231</v>
+      </c>
+      <c r="BI62">
+        <v>231</v>
+      </c>
       <c r="BJ62">
         <v>0</v>
       </c>
@@ -10751,210 +10985,210 @@
         <v>297</v>
       </c>
       <c r="C63">
-        <f t="shared" ref="C63:BB63" si="0">C30</f>
+        <f t="shared" ref="C63:BB63" si="1">C30</f>
         <v>287</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>224</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>301</v>
       </c>
       <c r="F63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>276</v>
       </c>
       <c r="G63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>245</v>
       </c>
       <c r="H63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>224</v>
       </c>
       <c r="I63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>192</v>
       </c>
       <c r="J63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>168</v>
       </c>
       <c r="K63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="L63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="M63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="N63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>196</v>
       </c>
       <c r="O63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>171</v>
       </c>
       <c r="P63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>154</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>133</v>
       </c>
       <c r="R63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="S63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="T63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>322</v>
       </c>
       <c r="U63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>287</v>
       </c>
       <c r="V63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>273</v>
       </c>
       <c r="W63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>248</v>
       </c>
       <c r="X63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>238</v>
       </c>
       <c r="Y63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>206</v>
       </c>
       <c r="Z63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
       <c r="AA63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="AB63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="AC63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="AD63">
         <v>129</v>
       </c>
       <c r="AE63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="AF63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>231</v>
       </c>
       <c r="AG63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>231</v>
       </c>
       <c r="AH63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>231</v>
       </c>
       <c r="AI63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>231</v>
       </c>
       <c r="AJ63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>245</v>
       </c>
       <c r="AK63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>252</v>
       </c>
       <c r="AL63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>269</v>
       </c>
       <c r="AM63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>276</v>
       </c>
       <c r="AN63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>287</v>
       </c>
       <c r="AO63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>283</v>
       </c>
       <c r="AP63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>297</v>
       </c>
       <c r="AQ63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>315</v>
       </c>
       <c r="AR63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>626</v>
       </c>
       <c r="AS63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>549</v>
       </c>
       <c r="AT63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>332</v>
       </c>
       <c r="AU63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>343</v>
       </c>
       <c r="AV63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>353</v>
       </c>
       <c r="AW63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>402</v>
       </c>
       <c r="AX63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>413</v>
       </c>
       <c r="AY63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>413</v>
       </c>
       <c r="AZ63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>427</v>
       </c>
       <c r="BA63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>318</v>
       </c>
       <c r="BB63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>336</v>
       </c>
       <c r="BC63">
@@ -10989,6 +11223,252 @@
       <c r="A64" t="s">
         <v>62</v>
       </c>
+      <c r="B64">
+        <f>B63-(B30-B13)</f>
+        <v>297</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ref="C64:X64" si="2">C63-(C30-C13)</f>
+        <v>287</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>224</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="2"/>
+        <v>301</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="2"/>
+        <v>276</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="2"/>
+        <v>245</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>224</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+      <c r="M64">
+        <v>129</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="2"/>
+        <v>322</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="2"/>
+        <v>287</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="2"/>
+        <v>273</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="Y64">
+        <f>Y63-(Y30-Y13)</f>
+        <v>206</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" ref="Z64" si="3">Z63-(Z30-Z13)</f>
+        <v>164</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" ref="AA64" si="4">AA63-(AA30-AA13)</f>
+        <v>129</v>
+      </c>
+      <c r="AB64">
+        <f t="shared" ref="AB64" si="5">AB63-(AB30-AB13)</f>
+        <v>129</v>
+      </c>
+      <c r="AC64">
+        <f t="shared" ref="AC64" si="6">AC63-(AC30-AC13)</f>
+        <v>129</v>
+      </c>
+      <c r="AD64">
+        <f t="shared" ref="AD64" si="7">AD63-(AD30-AD13)</f>
+        <v>258</v>
+      </c>
+      <c r="AE64">
+        <f t="shared" ref="AE64" si="8">AE63-(AE30-AE13)</f>
+        <v>129</v>
+      </c>
+      <c r="AF64">
+        <f t="shared" ref="AF64" si="9">AF63-(AF30-AF13)</f>
+        <v>231</v>
+      </c>
+      <c r="AG64">
+        <f t="shared" ref="AG64" si="10">AG63-(AG30-AG13)</f>
+        <v>231</v>
+      </c>
+      <c r="AH64">
+        <f t="shared" ref="AH64" si="11">AH63-(AH30-AH13)</f>
+        <v>231</v>
+      </c>
+      <c r="AI64">
+        <f>AI63-(AI30-AI13)</f>
+        <v>231</v>
+      </c>
+      <c r="AJ64">
+        <f t="shared" ref="AJ64" si="12">AJ63-(AJ30-AJ13)</f>
+        <v>245</v>
+      </c>
+      <c r="AK64">
+        <f t="shared" ref="AK64" si="13">AK63-(AK30-AK13)</f>
+        <v>252</v>
+      </c>
+      <c r="AL64">
+        <f t="shared" ref="AL64" si="14">AL63-(AL30-AL13)</f>
+        <v>269</v>
+      </c>
+      <c r="AM64">
+        <f t="shared" ref="AM64" si="15">AM63-(AM30-AM13)</f>
+        <v>276</v>
+      </c>
+      <c r="AN64">
+        <f t="shared" ref="AN64" si="16">AN63-(AN30-AN13)</f>
+        <v>287</v>
+      </c>
+      <c r="AO64">
+        <f t="shared" ref="AO64" si="17">AO63-(AO30-AO13)</f>
+        <v>283</v>
+      </c>
+      <c r="AP64">
+        <f>AP63-(AP30-AP13)</f>
+        <v>297</v>
+      </c>
+      <c r="AQ64">
+        <f t="shared" ref="AQ64" si="18">AQ63-(AQ30-AQ13)</f>
+        <v>315</v>
+      </c>
+      <c r="AR64">
+        <f t="shared" ref="AR64" si="19">AR63-(AR30-AR13)</f>
+        <v>626</v>
+      </c>
+      <c r="AS64">
+        <f>AS63-(AS30-AS13)</f>
+        <v>549</v>
+      </c>
+      <c r="AT64">
+        <f t="shared" ref="AT64" si="20">AT63-(AT30-AT13)</f>
+        <v>332</v>
+      </c>
+      <c r="AU64">
+        <f t="shared" ref="AU64" si="21">AU63-(AU30-AU13)</f>
+        <v>343</v>
+      </c>
+      <c r="AV64">
+        <f t="shared" ref="AV64" si="22">AV63-(AV30-AV13)</f>
+        <v>353</v>
+      </c>
+      <c r="AW64">
+        <f t="shared" ref="AW64" si="23">AW63-(AW30-AW13)</f>
+        <v>402</v>
+      </c>
+      <c r="AX64">
+        <f>AX63-(AX30-AX13)</f>
+        <v>413</v>
+      </c>
+      <c r="AY64">
+        <f t="shared" ref="AY64" si="24">AY63-(AY30-AY13)</f>
+        <v>413</v>
+      </c>
+      <c r="AZ64">
+        <f t="shared" ref="AZ64" si="25">AZ63-(AZ30-AZ13)</f>
+        <v>427</v>
+      </c>
+      <c r="BA64">
+        <f t="shared" ref="BA64" si="26">BA63-(BA30-BA13)</f>
+        <v>318</v>
+      </c>
+      <c r="BB64">
+        <f t="shared" ref="BB64" si="27">BB63-(BB30-BB13)</f>
+        <v>336</v>
+      </c>
+      <c r="BC64">
+        <f t="shared" ref="BC64" si="28">BC63-(BC30-BC13)</f>
+        <v>129</v>
+      </c>
+      <c r="BD64">
+        <f t="shared" ref="BD64" si="29">BD63-(BD30-BD13)</f>
+        <v>245</v>
+      </c>
+      <c r="BE64">
+        <f t="shared" ref="BE64" si="30">BE63-(BE30-BE13)</f>
+        <v>245</v>
+      </c>
+      <c r="BF64">
+        <f t="shared" ref="BF64" si="31">BF63-(BF30-BF13)</f>
+        <v>231</v>
+      </c>
+      <c r="BG64">
+        <f t="shared" ref="BG64" si="32">BG63-(BG30-BG13)</f>
+        <v>231</v>
+      </c>
+      <c r="BH64">
+        <f t="shared" ref="BH64" si="33">BH63-(BH30-BH13)</f>
+        <v>231</v>
+      </c>
+      <c r="BI64">
+        <f t="shared" ref="BI64" si="34">BI63-(BI30-BI13)</f>
+        <v>231</v>
+      </c>
+      <c r="BJ64">
+        <f t="shared" ref="BJ64" si="35">BJ63-(BJ30-BJ13)</f>
+        <v>129</v>
+      </c>
+      <c r="BK64">
+        <v>129</v>
+      </c>
       <c r="BL64">
         <v>0</v>
       </c>
@@ -10997,8 +11477,285 @@
       <c r="A65" t="s">
         <v>63</v>
       </c>
+      <c r="B65">
+        <f>B55-(B31-B30)</f>
+        <v>297</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ref="C65:BL65" si="36">C55-(C31-C30)</f>
+        <v>287</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="36"/>
+        <v>224</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="36"/>
+        <v>301</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="36"/>
+        <v>276</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="36"/>
+        <v>245</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="36"/>
+        <v>224</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="36"/>
+        <v>192</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="36"/>
+        <v>168</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="36"/>
+        <v>129</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="36"/>
+        <v>129</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="36"/>
+        <v>129</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="36"/>
+        <v>196</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="36"/>
+        <v>171</v>
+      </c>
+      <c r="P65">
+        <f>P55-(P31-P30)</f>
+        <v>154</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="36"/>
+        <v>133</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="36"/>
+        <v>129</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="36"/>
+        <v>129</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="36"/>
+        <v>322</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="36"/>
+        <v>287</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="36"/>
+        <v>273</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="36"/>
+        <v>248</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="36"/>
+        <v>238</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="36"/>
+        <v>206</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="36"/>
+        <v>164</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="36"/>
+        <v>129</v>
+      </c>
+      <c r="AB65">
+        <f t="shared" si="36"/>
+        <v>129</v>
+      </c>
+      <c r="AC65">
+        <f t="shared" si="36"/>
+        <v>129</v>
+      </c>
+      <c r="AD65">
+        <f t="shared" si="36"/>
+        <v>129</v>
+      </c>
+      <c r="AE65">
+        <f t="shared" si="36"/>
+        <v>258</v>
+      </c>
+      <c r="AF65">
+        <f t="shared" si="36"/>
+        <v>231</v>
+      </c>
+      <c r="AG65">
+        <f t="shared" si="36"/>
+        <v>231</v>
+      </c>
+      <c r="AH65">
+        <f t="shared" si="36"/>
+        <v>231</v>
+      </c>
+      <c r="AI65">
+        <f t="shared" si="36"/>
+        <v>231</v>
+      </c>
+      <c r="AJ65">
+        <f t="shared" si="36"/>
+        <v>245</v>
+      </c>
+      <c r="AK65">
+        <f t="shared" si="36"/>
+        <v>252</v>
+      </c>
+      <c r="AL65">
+        <f t="shared" si="36"/>
+        <v>269</v>
+      </c>
+      <c r="AM65">
+        <f t="shared" si="36"/>
+        <v>276</v>
+      </c>
+      <c r="AN65">
+        <f t="shared" si="36"/>
+        <v>287</v>
+      </c>
+      <c r="AO65">
+        <f t="shared" si="36"/>
+        <v>283</v>
+      </c>
+      <c r="AP65">
+        <f t="shared" si="36"/>
+        <v>297</v>
+      </c>
+      <c r="AQ65">
+        <f t="shared" si="36"/>
+        <v>315</v>
+      </c>
+      <c r="AR65">
+        <f t="shared" si="36"/>
+        <v>626</v>
+      </c>
+      <c r="AS65">
+        <f t="shared" si="36"/>
+        <v>549</v>
+      </c>
+      <c r="AT65">
+        <f t="shared" si="36"/>
+        <v>332</v>
+      </c>
+      <c r="AU65">
+        <f t="shared" si="36"/>
+        <v>343</v>
+      </c>
+      <c r="AV65">
+        <f t="shared" si="36"/>
+        <v>353</v>
+      </c>
+      <c r="AW65">
+        <f t="shared" si="36"/>
+        <v>402</v>
+      </c>
+      <c r="AX65">
+        <f t="shared" si="36"/>
+        <v>413</v>
+      </c>
+      <c r="AY65">
+        <f t="shared" si="36"/>
+        <v>413</v>
+      </c>
+      <c r="AZ65">
+        <f t="shared" si="36"/>
+        <v>427</v>
+      </c>
+      <c r="BA65">
+        <f t="shared" si="36"/>
+        <v>318</v>
+      </c>
+      <c r="BB65">
+        <f t="shared" si="36"/>
+        <v>336</v>
+      </c>
+      <c r="BC65">
+        <v>129</v>
+      </c>
+      <c r="BD65">
+        <v>245</v>
+      </c>
+      <c r="BE65">
+        <v>245</v>
+      </c>
+      <c r="BF65">
+        <v>231</v>
+      </c>
+      <c r="BG65">
+        <v>231</v>
+      </c>
+      <c r="BH65">
+        <v>231</v>
+      </c>
+      <c r="BI65">
+        <v>231</v>
+      </c>
+      <c r="BJ65">
+        <v>129</v>
+      </c>
+      <c r="BK65">
+        <v>129</v>
+      </c>
+      <c r="BL65">
+        <v>129</v>
+      </c>
       <c r="BM65">
         <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:65">
+      <c r="BC66" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD66" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE66" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF66" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG66" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH66" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI66" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ66" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK66" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL66" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM66" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
